--- a/QuanLyDuAn/Report.xlsx
+++ b/QuanLyDuAn/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DongTrieu_Nam3\CNPM_Giao\QuanLyDuAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DAD9F-5B85-404E-90FB-A638A6E5C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C4618-95B6-41D2-A94E-C5C5BA71E036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>Thiết kế giao diện người dùng</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>Giao diện ổn, vẫn còn thiếu 1 số giao diện quản lý</t>
-  </si>
-  <si>
-    <t>Thiếu chức năng đăng xuất</t>
   </si>
   <si>
     <t>Chưa hoàn thành, dự kiến sẽ hoàn thành vào Sprint 2</t>
@@ -294,6 +291,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -395,24 +393,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -432,12 +412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,24 +770,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="17">
+      <c r="C2" s="11">
         <f>SUM(C4:C14,C16:C24,C26:C32)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -799,25 +796,25 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="I4" s="8">
         <v>10</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -831,25 +828,25 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="14">
+      <c r="H5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="8">
         <v>4</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -863,25 +860,25 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="14">
+      <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="8">
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -895,29 +892,29 @@
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2</v>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -927,25 +924,25 @@
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14">
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -955,29 +952,29 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -987,29 +984,29 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="8">
         <v>2</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1019,29 +1016,29 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="E11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="8">
         <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1051,29 +1048,29 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="E12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="8">
         <v>4</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1083,29 +1080,29 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="8">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1115,44 +1112,44 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="7">
         <v>8</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>58</v>
+      <c r="J14" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1161,16 +1158,16 @@
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="8">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="4"/>
@@ -1185,16 +1182,16 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="4"/>
@@ -1209,17 +1206,17 @@
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>66</v>
+      <c r="F18" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1233,17 +1230,17 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="8">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>66</v>
+      <c r="F19" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1257,17 +1254,17 @@
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>66</v>
+      <c r="F20" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1281,16 +1278,16 @@
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="8">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="4"/>
@@ -1305,16 +1302,16 @@
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="8">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="4"/>
@@ -1329,17 +1326,17 @@
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="8">
         <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1353,17 +1350,17 @@
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="8">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1371,18 +1368,18 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1391,16 +1388,16 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="8">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="4"/>
@@ -1415,16 +1412,16 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="4"/>
@@ -1439,16 +1436,16 @@
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="4"/>
@@ -1463,16 +1460,16 @@
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="4"/>
@@ -1487,16 +1484,16 @@
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="8">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="4"/>
@@ -1511,16 +1508,16 @@
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="8">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="4"/>
@@ -1535,16 +1532,16 @@
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="8">
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="4"/>
@@ -1552,60 +1549,49 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="18"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
